--- a/原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>产品节点</t>
   </si>
@@ -152,7 +152,10 @@
     <t>针对运维的培训</t>
   </si>
   <si>
-    <t>监控及异常处理，安全发布，安全工作流程</t>
+    <t>监控及异常处理，安全发布，安全工作流程，敏感服务的管理</t>
+  </si>
+  <si>
+    <t>安全架构，WAF防护</t>
   </si>
   <si>
     <t>节点通知</t>
@@ -227,15 +230,24 @@
     <t>APP行为合规审计</t>
   </si>
   <si>
-    <t>生产发布应由流程实现</t>
-  </si>
-  <si>
-    <t>发布流程</t>
+    <t>生产发布应由流程实现，流程触发自动化</t>
+  </si>
+  <si>
+    <t>发布流程，服务部署跟上架商城</t>
   </si>
   <si>
     <t>发布审计</t>
   </si>
   <si>
+    <t>密码信息统一管理</t>
+  </si>
+  <si>
+    <t>由统一系统管理，应用向系统请求信息</t>
+  </si>
+  <si>
+    <t>K8S使用secret，阿里KMS服务</t>
+  </si>
+  <si>
     <t>CICD时通知安全</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
   </si>
   <si>
     <t>渗透测试运营，漏洞运营</t>
+  </si>
+  <si>
+    <t>对应用关联域名及服务器的渗透测试，要有应用的关联关系</t>
   </si>
   <si>
     <t>配置文件泄露</t>
@@ -1287,7 +1302,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1428,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1492,13 +1507,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5545454545455" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.1090909090909" style="3" customWidth="1"/>
@@ -1566,6 +1581,11 @@
       </c>
       <c r="D7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1607,24 +1627,24 @@
     </row>
     <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="84" spans="3:4">
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1636,10 +1656,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1668,82 +1688,82 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="154" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1757,39 +1777,50 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1836,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1834,16 +1865,16 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1861,14 +1892,15 @@
     <row r="5" customFormat="1" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1876,7 +1908,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2119,18 +2151,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2199,42 +2231,42 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>产品节点</t>
   </si>
@@ -86,6 +86,9 @@
     <t>安全运营</t>
   </si>
   <si>
+    <t>应用类型</t>
+  </si>
+  <si>
     <t>安全管理</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>安全技术</t>
   </si>
   <si>
+    <t>APP</t>
+  </si>
+  <si>
     <t>应当有立项流程，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。应当对所有应用有统一管理。</t>
   </si>
   <si>
@@ -107,7 +113,19 @@
     <t>在各团队中确认安全对接人。分别给各角色进行相关安全培训。建立信息互通机制，按产品节点进行安全建设</t>
   </si>
   <si>
+    <t>web系统</t>
+  </si>
+  <si>
+    <t>小程序</t>
+  </si>
+  <si>
+    <t>桌面软件</t>
+  </si>
+  <si>
     <t>监控新建代码仓库的行为</t>
+  </si>
+  <si>
+    <t>服务器软件</t>
   </si>
   <si>
     <t>监控域名申请行为</t>
@@ -1441,21 +1459,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="15.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="22.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="25.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1466,36 +1485,58 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="98" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
+    <row r="2" ht="98" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1522,13 +1563,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1536,56 +1577,56 @@
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1613,13 +1654,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1627,24 +1668,24 @@
     </row>
     <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="84" spans="3:4">
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1699,7 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1674,13 +1715,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1688,82 +1729,82 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="154" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1777,50 +1818,50 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1851,13 +1892,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1865,16 +1906,16 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1893,14 +1934,14 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1908,7 +1949,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2137,13 +2178,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2151,18 +2192,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2238,35 +2279,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>产品节点</t>
   </si>
@@ -29,7 +29,7 @@
     <t>应用安全项</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>安全管理</t>
   </si>
   <si>
     <t>立项阶段</t>
@@ -86,22 +86,13 @@
     <t>安全运营</t>
   </si>
   <si>
-    <t>应用类型</t>
-  </si>
-  <si>
-    <t>安全管理</t>
-  </si>
-  <si>
     <t>系统支持</t>
   </si>
   <si>
     <t>安全技术</t>
   </si>
   <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>应当有立项流程，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。应当对所有应用有统一管理。</t>
+    <t>立项流程中加入安全，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。应当对所有应用有统一管理。</t>
   </si>
   <si>
     <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。统一的应用管理系统</t>
@@ -113,21 +104,9 @@
     <t>在各团队中确认安全对接人。分别给各角色进行相关安全培训。建立信息互通机制，按产品节点进行安全建设</t>
   </si>
   <si>
-    <t>web系统</t>
-  </si>
-  <si>
-    <t>小程序</t>
-  </si>
-  <si>
-    <t>桌面软件</t>
-  </si>
-  <si>
     <t>监控新建代码仓库的行为</t>
   </si>
   <si>
-    <t>服务器软件</t>
-  </si>
-  <si>
     <t>监控域名申请行为</t>
   </si>
   <si>
@@ -245,7 +224,7 @@
     <t>用户协议审计</t>
   </si>
   <si>
-    <t>APP行为合规审计</t>
+    <t>合规审计</t>
   </si>
   <si>
     <t>生产发布应由流程实现，流程触发自动化</t>
@@ -290,10 +269,19 @@
     <t>统一发布系统</t>
   </si>
   <si>
-    <t>app加壳</t>
+    <t>加壳</t>
   </si>
   <si>
     <t>WAF应用防火墙</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>自研传输协议</t>
+  </si>
+  <si>
+    <t>传输数据加密</t>
   </si>
   <si>
     <t>逐步实现自动化</t>
@@ -1320,14 +1308,14 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="14.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
@@ -1459,84 +1447,61 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="25.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="25.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="24.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="19.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="98" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1563,13 +1528,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1577,56 +1542,56 @@
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1654,13 +1619,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1668,24 +1633,24 @@
     </row>
     <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="84" spans="3:4">
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1699,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1715,13 +1680,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1729,82 +1694,82 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="154" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1818,50 +1783,50 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1892,13 +1857,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1906,16 +1871,16 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1934,14 +1899,14 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1949,7 +1914,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2165,7 +2130,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2178,13 +2143,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2192,18 +2157,33 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2279,35 +2259,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>产品节点</t>
   </si>
@@ -32,66 +32,102 @@
     <t>安全管理</t>
   </si>
   <si>
+    <t>系统支持</t>
+  </si>
+  <si>
     <t>立项阶段</t>
   </si>
   <si>
     <t>应用发现</t>
   </si>
   <si>
+    <t>立项流程中应加入安全，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。</t>
+  </si>
+  <si>
     <t>立项后</t>
   </si>
   <si>
     <t>安全培训</t>
   </si>
   <si>
+    <t>立项后，安全应在开发之前，分别对产品，开发等进行安全培训</t>
+  </si>
+  <si>
     <t>开发/功能设计阶段</t>
   </si>
   <si>
     <t>安全需求</t>
   </si>
   <si>
+    <t>在进行设计时，应当通知安全，安全提出相关需求或要求</t>
+  </si>
+  <si>
     <t>技术体系及架构阶段</t>
   </si>
   <si>
+    <t>在选择技术体系及框架时，应当通知安全，安全提出需求或要求</t>
+  </si>
+  <si>
     <t>CI阶段</t>
   </si>
   <si>
     <t>审计检查</t>
   </si>
   <si>
+    <t>在持续集成时，应当通知安全，安全进行代码审计</t>
+  </si>
+  <si>
+    <t>针对审计中出现的问题，再安排针对性的培训</t>
+  </si>
+  <si>
     <t>CD阶段</t>
   </si>
   <si>
+    <t>持续发布时，应做好版本管理，不能影响正在测试的环境。生产环境不能使用CD</t>
+  </si>
+  <si>
     <t>测试阶段</t>
   </si>
   <si>
     <t>渗透测试</t>
   </si>
   <si>
+    <t>测试应当通知安全，当前测试版本，分支，环境等信息，安全进行渗透测试</t>
+  </si>
+  <si>
     <t>生产环境发布</t>
   </si>
   <si>
     <t>渗透测试、审计检查</t>
   </si>
   <si>
+    <t>应当建立生产发布的专用流程，不能使用CD方式发布。</t>
+  </si>
+  <si>
     <t>应用上架商城</t>
   </si>
   <si>
     <t>安全加固</t>
   </si>
   <si>
+    <t>应用上架应使用流程上架，非人为上架。</t>
+  </si>
+  <si>
     <t>持续运营</t>
   </si>
   <si>
     <t>安全运营</t>
   </si>
   <si>
-    <t>系统支持</t>
+    <t>应用类型</t>
   </si>
   <si>
     <t>安全技术</t>
   </si>
   <si>
+    <t>APP</t>
+  </si>
+  <si>
     <t>立项流程中加入安全，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。应当对所有应用有统一管理。</t>
   </si>
   <si>
@@ -104,7 +140,19 @@
     <t>在各团队中确认安全对接人。分别给各角色进行相关安全培训。建立信息互通机制，按产品节点进行安全建设</t>
   </si>
   <si>
+    <t>WEB系统</t>
+  </si>
+  <si>
+    <t>小程序</t>
+  </si>
+  <si>
+    <t>PC软件</t>
+  </si>
+  <si>
     <t>监控新建代码仓库的行为</t>
+  </si>
+  <si>
+    <t>服务器软件</t>
   </si>
   <si>
     <t>监控域名申请行为</t>
@@ -1307,18 +1355,20 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:3">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1328,91 +1378,124 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="84" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
@@ -1447,61 +1530,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="24.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="19.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="19.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="25.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="84" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:5">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1531,67 +1637,67 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1622,35 +1728,35 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="84" spans="3:4">
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1770,7 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1683,93 +1789,93 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="154" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1783,50 +1889,50 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1860,27 +1966,27 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1899,14 +2005,14 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1914,7 +2020,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2146,44 +2252,44 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2259,35 +2365,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -11,17 +11,18 @@
     <sheet name="应用发现" sheetId="17" r:id="rId2"/>
     <sheet name="安全培训" sheetId="13" r:id="rId3"/>
     <sheet name="安全需求" sheetId="12" r:id="rId4"/>
-    <sheet name="检查审计" sheetId="1" r:id="rId5"/>
+    <sheet name="检查审计监控" sheetId="1" r:id="rId5"/>
     <sheet name="渗透测试" sheetId="18" r:id="rId6"/>
     <sheet name="安全加固与保护" sheetId="4" r:id="rId7"/>
     <sheet name="安全运营" sheetId="3" r:id="rId8"/>
+    <sheet name="关联安全" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>产品节点</t>
   </si>
@@ -44,6 +45,9 @@
     <t>立项流程中应加入安全，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。</t>
   </si>
   <si>
+    <t>项目管理系统等</t>
+  </si>
+  <si>
     <t>立项后</t>
   </si>
   <si>
@@ -116,22 +120,28 @@
     <t>持续运营</t>
   </si>
   <si>
+    <t>安全运营/审计检查监控</t>
+  </si>
+  <si>
+    <t>每个应用应当有相关的对接人，使得安全运营能够展开工作</t>
+  </si>
+  <si>
+    <t>应用类型</t>
+  </si>
+  <si>
+    <t>安全技术</t>
+  </si>
+  <si>
     <t>安全运营</t>
   </si>
   <si>
-    <t>应用类型</t>
-  </si>
-  <si>
-    <t>安全技术</t>
-  </si>
-  <si>
     <t>APP</t>
   </si>
   <si>
-    <t>立项流程中加入安全，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。应当对所有应用有统一管理。</t>
-  </si>
-  <si>
-    <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。统一的应用管理系统</t>
+    <t>应当对所有应用有统一信息管理。集团层面的统一系统，系统中有应用归属分公司，归属部门，进度等各种统一管理层面需要的信息。注意权限的收束</t>
+  </si>
+  <si>
+    <t>统一的应用管理系统</t>
   </si>
   <si>
     <t>从商城发现应用</t>
@@ -143,24 +153,33 @@
     <t>WEB系统</t>
   </si>
   <si>
+    <t>从域名发现应用</t>
+  </si>
+  <si>
     <t>小程序</t>
   </si>
   <si>
+    <t>从小程序发现</t>
+  </si>
+  <si>
     <t>PC软件</t>
   </si>
   <si>
+    <t>从官网、域名发现</t>
+  </si>
+  <si>
+    <t>服务器软件</t>
+  </si>
+  <si>
+    <t>应当建立系统上线流程，流程要经安全确认才能上线。产品确认版本，开发确认代码等过程。</t>
+  </si>
+  <si>
     <t>监控新建代码仓库的行为</t>
   </si>
   <si>
-    <t>服务器软件</t>
-  </si>
-  <si>
     <t>监控域名申请行为</t>
   </si>
   <si>
-    <t>应当建立系统上线流程，流程要经安全确认才能上线。产品确认版本，开发确认代码等过程。</t>
-  </si>
-  <si>
     <t>产品、开发、测试等角色必须参加安全培训</t>
   </si>
   <si>
@@ -221,94 +240,124 @@
     <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
   </si>
   <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
     <t>CI时通知安全</t>
   </si>
   <si>
+    <t>自动化建设，相关平台建设，商品采购</t>
+  </si>
+  <si>
+    <t>自动化代码审计、周期化代码审计、commit审计、全项目审计</t>
+  </si>
+  <si>
+    <t>安全运营，持续发现及处理问题。漏洞修复，提供培训视频、漏洞原理（bad case）以及如何针对不同代码的修复方法。而且这个是平台自动携带相关信息推送给 rd。</t>
+  </si>
+  <si>
+    <t>依赖包检查SAST，Dependency Scanning</t>
+  </si>
+  <si>
+    <t>通过平台将Git url（代码仓库地址）和commit id（版本号）发给SDL平台，SDL平台根据Git url和commit id生成扫描任务，并将该扫描任务发送给白盒扫描器，白盒扫描器按照给定任务中的Git url和commit id拉取代码进行分析，并将扫描结果返回给SDL平台，SDL平台接收到扫描结果后，将结果中的漏洞推送到安全平台，由安全平台将漏洞发送给对应的安全工程师进行漏洞修复。</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CD时通知安全</t>
+  </si>
+  <si>
+    <t>完整性检查</t>
+  </si>
+  <si>
+    <t>版本检查</t>
+  </si>
+  <si>
+    <t>构建行为审计</t>
+  </si>
+  <si>
+    <t>通过pipelines流水线，构建时把组件依赖关系记录下来。用于检查0day。对集成包的组件包和 CVE 进行比对。会要求升级，如果环境不对外开放可例外与业务分析风险是否接受。</t>
+  </si>
+  <si>
+    <t>发布</t>
+  </si>
+  <si>
+    <t>生产发布应由流程实现，流程触发自动化</t>
+  </si>
+  <si>
+    <t>建设流程，按类型，非APP没有上架商城的流程，只到生产环境部署</t>
+  </si>
+  <si>
+    <t>用户协议审计</t>
+  </si>
+  <si>
+    <t>合规审计</t>
+  </si>
+  <si>
+    <t>发布审计</t>
+  </si>
+  <si>
+    <t>运营阶段</t>
+  </si>
+  <si>
+    <t>应用配置文件</t>
+  </si>
+  <si>
+    <t>由统一系统管理，应用向系统请求信息</t>
+  </si>
+  <si>
+    <t>K8S使用secret，阿里KMS服务</t>
+  </si>
+  <si>
+    <t>全面的日志留存</t>
+  </si>
+  <si>
+    <t>审计平台搭建。SEIM搭建。</t>
+  </si>
+  <si>
+    <t>应用日志审计。</t>
+  </si>
+  <si>
+    <t>WAF日志</t>
+  </si>
+  <si>
+    <t>持续安全监控</t>
+  </si>
+  <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>APP/web</t>
+  </si>
+  <si>
+    <t>CICD时通知安全</t>
+  </si>
+  <si>
     <t>CICD系统给安全留位置</t>
   </si>
   <si>
-    <t>自动化代码审计、周期化代码审计、commit审计、全项目审计</t>
-  </si>
-  <si>
-    <t>代码审计运营。漏洞修复。</t>
-  </si>
-  <si>
-    <t>依赖包检查SAST，Dependency Scanning</t>
-  </si>
-  <si>
-    <t>漏洞修复，提供培训视频、漏洞原理（bad case）以及如何针对不同代码的修复方法。而且这个是平台自动携带相关信息推送给 rd，不需要人工干预，除非过程中不明白会联系我们指导。</t>
-  </si>
-  <si>
-    <t>建设相关平台</t>
-  </si>
-  <si>
-    <t>通过平台将Git url（代码仓库地址）和commit id（版本号）发给SDL平台，SDL平台根据Git url和commit id生成扫描任务，并将该扫描任务发送给白盒扫描器，白盒扫描器按照给定任务中的Git url和commit id拉取代码进行分析，并将扫描结果返回给SDL平台，SDL平台接收到扫描结果后，将结果中的漏洞推送到安全平台，由安全平台将漏洞发送给对应的安全工程师进行漏洞修复。</t>
-  </si>
-  <si>
-    <t>完整性检查</t>
-  </si>
-  <si>
-    <t>版本检查</t>
-  </si>
-  <si>
-    <t>构建行为审计</t>
-  </si>
-  <si>
-    <t>通过pipelines流水线，构建时把组件依赖关系记录下来。用于检查0day。对集成包的组件包和 CVE 进行比对。会要求升级，如果环境不对外开放可例外与业务分析风险是否接受。</t>
-  </si>
-  <si>
-    <t>全面的日志留存</t>
-  </si>
-  <si>
-    <t>审计平台搭建</t>
-  </si>
-  <si>
-    <t>应用日志审计。SEIM搭建。</t>
-  </si>
-  <si>
-    <t>WAF日志</t>
-  </si>
-  <si>
-    <t>用户协议审计</t>
-  </si>
-  <si>
-    <t>合规审计</t>
-  </si>
-  <si>
-    <t>生产发布应由流程实现，流程触发自动化</t>
-  </si>
-  <si>
-    <t>发布流程，服务部署跟上架商城</t>
-  </si>
-  <si>
-    <t>发布审计</t>
-  </si>
-  <si>
-    <t>密码信息统一管理</t>
-  </si>
-  <si>
-    <t>由统一系统管理，应用向系统请求信息</t>
-  </si>
-  <si>
-    <t>K8S使用secret，阿里KMS服务</t>
-  </si>
-  <si>
-    <t>CICD时通知安全</t>
-  </si>
-  <si>
     <t>渗透测试、IAST、DAST等动态模糊测试</t>
   </si>
   <si>
     <t>渗透测试运营，漏洞运营</t>
   </si>
   <si>
-    <t>对应用关联域名及服务器的渗透测试，要有应用的关联关系</t>
-  </si>
-  <si>
-    <t>配置文件泄露</t>
-  </si>
-  <si>
-    <t>.GIT文件等检查</t>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>扫描测试、渗透测试</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>渗透测试、破解</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
   <si>
     <t>上架应由程序实现</t>
@@ -320,6 +369,9 @@
     <t>加壳</t>
   </si>
   <si>
+    <t>WEB、客户端</t>
+  </si>
+  <si>
     <t>WAF应用防火墙</t>
   </si>
   <si>
@@ -332,6 +384,18 @@
     <t>传输数据加密</t>
   </si>
   <si>
+    <t>反调试</t>
+  </si>
+  <si>
+    <t>安全架构</t>
+  </si>
+  <si>
+    <t>功能安全实现</t>
+  </si>
+  <si>
+    <t>漏洞修复</t>
+  </si>
+  <si>
     <t>逐步实现自动化</t>
   </si>
   <si>
@@ -351,6 +415,63 @@
   </si>
   <si>
     <t>应用漏洞的推进修复</t>
+  </si>
+  <si>
+    <t>周期性扫描</t>
+  </si>
+  <si>
+    <t>所有应用的周期性测试</t>
+  </si>
+  <si>
+    <t>可重复内容的周期性重复</t>
+  </si>
+  <si>
+    <t>废弃API的处理。</t>
+  </si>
+  <si>
+    <t>应用与API关联关系的建立。</t>
+  </si>
+  <si>
+    <t>关联方面</t>
+  </si>
+  <si>
+    <t>管理方面</t>
+  </si>
+  <si>
+    <t>技术方面</t>
+  </si>
+  <si>
+    <t>基础安全</t>
+  </si>
+  <si>
+    <t>对应用关联域名、IP及服务器、数据库、OSS、配置文件等的关联关系。</t>
+  </si>
+  <si>
+    <t>运行环境安全，环境纯洁性</t>
+  </si>
+  <si>
+    <t>办公安全</t>
+  </si>
+  <si>
+    <t>后台支持类系统，相关工作流程的安全</t>
+  </si>
+  <si>
+    <t>行为审计，日志记录</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>密级数据的关联关系</t>
+  </si>
+  <si>
+    <t>行为审计，日志记录，系统脱敏，数据加解密</t>
+  </si>
+  <si>
+    <t>业务安全</t>
+  </si>
+  <si>
+    <t>等等</t>
   </si>
 </sst>
 </file>
@@ -977,33 +1098,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1356,167 +1498,173 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="25.4545454545455" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
     <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="84" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="84" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="3" customFormat="1" ht="42" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" ht="42" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="5" customFormat="1" ht="42" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="6" ht="28" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8"/>
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:3">
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="8" ht="56" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="9" ht="42" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="10" ht="42" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="11" ht="28" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="12" ht="42" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1530,16 +1678,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="25.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="37.4545454545455" style="13" customWidth="1"/>
     <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
     <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
@@ -1547,70 +1695,98 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="84" spans="1:5">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="2:2">
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1622,82 +1798,82 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1888,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1731,32 +1907,32 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="84" spans="3:4">
-      <c r="C3" s="3" t="s">
-        <v>64</v>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1768,174 +1944,216 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.2727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6363636363636" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="28" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="46" customHeight="1" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="154" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="28" spans="1:5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="168" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="1" ht="168" spans="1:5">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="84" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="2" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="2:4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11"/>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11"/>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1945,284 +2163,295 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.9090909090909" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.9090909090909" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="28" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="28" spans="1:5">
+      <c r="A2" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
-      <c r="A3" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="2:5">
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:4">
-      <c r="A8" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:4">
-      <c r="A10" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:4">
-      <c r="A11" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:6">
+      <c r="B20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:6">
       <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:6">
       <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="4"/>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="3:3">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" s="7" customFormat="1" spans="3:3">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="4:4">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="4:4">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="4"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48"/>
-      <c r="B48" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:6">
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="3:6">
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="3:6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="3:6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="3:6">
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="3:6">
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="3:6">
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="3:6">
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48"/>
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2233,119 +2462,161 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="24.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="16.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2355,45 +2626,91 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="16.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="13.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-    </row>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" ht="42" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2401,4 +2718,80 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="21.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="152">
   <si>
     <t>产品节点</t>
   </si>
@@ -138,10 +138,10 @@
     <t>APP</t>
   </si>
   <si>
-    <t>应当对所有应用有统一信息管理。集团层面的统一系统，系统中有应用归属分公司，归属部门，进度等各种统一管理层面需要的信息。注意权限的收束</t>
-  </si>
-  <si>
-    <t>统一的应用管理系统</t>
+    <t>各应用所属应当将应用信息上报集团，对所有应用有统一信息管理。集团层面的统一系统，系统中有应用归属分公司，归属部门，进度等各种统一管理层面需要的信息。注意权限的收束。各公司自己对应用应有全生命周期的管理。</t>
+  </si>
+  <si>
+    <t>统一的应用备案系统</t>
   </si>
   <si>
     <t>从商城发现应用</t>
@@ -171,7 +171,13 @@
     <t>服务器软件</t>
   </si>
   <si>
-    <t>应当建立系统上线流程，流程要经安全确认才能上线。产品确认版本，开发确认代码等过程。</t>
+    <t>应当建立系统上线流程，流程要经安全确认才能上线。产品确认版本，开发确认代码等过程。审批通过后实现自动上线。</t>
+  </si>
+  <si>
+    <t>应用生产环境发布系统及流程</t>
+  </si>
+  <si>
+    <t>将流程中的信息与Jenkins纪录进行比对审计</t>
   </si>
   <si>
     <t>监控新建代码仓库的行为</t>
@@ -1098,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,23 +1135,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1497,15 +1488,15 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="25.4545454545455" style="13" customWidth="1"/>
+    <col min="3" max="3" width="32.2727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
     <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
   </cols>
@@ -1517,14 +1508,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="84" spans="1:4">
+    <row r="2" customFormat="1" ht="56" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1538,67 +1529,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="42" spans="1:3">
+    <row r="3" customFormat="1" ht="28" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:3">
+    <row r="4" ht="28" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="42" spans="1:3">
+    <row r="5" customFormat="1" ht="28" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="56" spans="1:3">
+    <row r="8" ht="42" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1609,18 +1600,18 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="42" spans="1:3">
+    <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1631,18 +1622,18 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="42" spans="1:3">
+    <row r="12" ht="28" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1680,14 +1671,14 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="37.4545454545455" style="13" customWidth="1"/>
+    <col min="2" max="2" width="37.4545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
     <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
@@ -1697,7 +1688,7 @@
       <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -1714,10 +1705,10 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
@@ -1731,8 +1722,8 @@
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
       <c r="D3" t="s">
         <v>43</v>
       </c>
@@ -1741,8 +1732,8 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
       <c r="D4" t="s">
         <v>45</v>
       </c>
@@ -1751,8 +1742,8 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>47</v>
       </c>
@@ -1761,25 +1752,31 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="2:2">
-      <c r="B8" s="13" t="s">
+    <row r="8" ht="42" spans="2:4">
+      <c r="B8" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1824,56 +1821,56 @@
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1915,24 +1912,24 @@
     </row>
     <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="84" spans="3:4">
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1960,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1980,91 +1977,91 @@
     </row>
     <row r="2" customFormat="1" ht="46" customHeight="1" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="28" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>80</v>
+      <c r="A5" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="11"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:6">
-      <c r="A8" s="11"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2077,70 +2074,70 @@
       <c r="C10" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
-        <v>86</v>
+      <c r="A14" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" ht="28" spans="2:4">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>92</v>
+      <c r="A18" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
+      <c r="A20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2179,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2199,47 +2196,46 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:5">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="1" spans="1:5">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="1" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="1" spans="2:5">
@@ -2256,13 +2252,11 @@
     <row r="8" customFormat="1" spans="2:5">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="1" spans="2:5">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
@@ -2479,7 +2473,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2496,71 +2490,71 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2657,60 +2651,60 @@
     <row r="2" customFormat="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" ht="28" spans="2:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" ht="42" spans="2:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2738,56 +2732,56 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
